--- a/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Master_executors\ECTEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AA6AE9-FDCF-451C-87A5-EB8585482D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96BF71-2081-4066-8632-963AAA0D2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Runmode</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>TC30_Verify_pagination_SortBy_filteronPLP</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -443,16 +440,7 @@
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -796,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1003,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>10</v>
@@ -1123,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>10</v>
@@ -1163,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>10</v>
@@ -1183,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>10</v>
@@ -1263,7 +1251,7 @@
         <v>49</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
@@ -1283,7 +1271,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>10</v>
@@ -1303,7 +1291,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>10</v>
@@ -1323,7 +1311,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>10</v>
@@ -1363,7 +1351,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>10</v>
@@ -1390,6 +1378,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Master_executors\ECTEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96BF71-2081-4066-8632-963AAA0D2486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161527BF-C139-4F02-8822-510FC616BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -409,26 +403,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,9 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -818,16 +803,16 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -838,16 +823,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -858,16 +843,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -878,16 +863,16 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -898,16 +883,16 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -918,16 +903,16 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -938,16 +923,16 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -958,16 +943,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -978,16 +963,16 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -998,16 +983,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1018,16 +1003,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1038,16 +1023,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1058,16 +1043,16 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1078,16 +1063,16 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1118,16 +1103,16 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1147,7 +1132,7 @@
       <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1167,7 +1152,7 @@
       <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1178,16 +1163,16 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1198,16 +1183,16 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1218,16 +1203,16 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1267,7 +1252,7 @@
       <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1318,16 +1303,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1">
-      <c r="A27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -1358,16 +1343,16 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="5" t="s">

--- a/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Master_executors\ECTEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161527BF-C139-4F02-8822-510FC616BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CCB258-6C86-4F85-A2B2-7E20CCC623CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
   <si>
     <t>Runmode</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>TC30_Verify_pagination_SortBy_filteronPLP</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1276,7 +1281,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>10</v>
@@ -1336,7 +1341,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>10</v>

--- a/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/ECTEST/MasterExecutor_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Master_executors\ECTEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CCB258-6C86-4F85-A2B2-7E20CCC623CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46283CA1-BB53-40AA-834F-FFAF2FD1F93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>Runmode</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>TC30_Verify_pagination_SortBy_filteronPLP</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -774,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,7 +1278,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>10</v>
@@ -1341,7 +1338,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>10</v>
